--- a/요구사항/요구사항 명세서.xlsx
+++ b/요구사항/요구사항 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B05C9-E598-460F-8E56-6FC8E904AD4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4940F036-F2AE-4548-A11D-50F074072B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7FEA9A74-F3CE-48C2-840C-E30D7730FF6E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="171">
   <si>
     <t>화면명</t>
   </si>
@@ -4396,6 +4396,30 @@
   </si>
   <si>
     <t>로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMS 시스템(학습관리 프로그램) 개발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 및 목적</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요 및 의의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가상 공간에서 관리자는 사전에 교육과정을 개설하고 교육에 필요한 제반 사항들을 설정하여, 수강신청을 통해 학습자가 학습에 참여하고, 학습과정을 추적하고 학습이력을 관리하여 맞춤형 학습을 지원한다. 교수 또한 학생들의 성적관리 및 출결관리 업무를 지원한다. 직관적이고 체계적으로 구성되어 있는 LMS시스템으로 모든 업무를 전산화하고 최소의 인원으로 최대의 업무 효과를 성취할 수 있게 하고자 한다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.08.03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 과거와 달리 미래 교육은 학습자 중심의 다차원적 맞춤형 학습을 요구한다. 기존 교수 중심의 수동적 강의실 모델이 아니라 학생이 스스로 학습에 참여하고 문제를 해결해 나가는 탐구형 모델로의 변화가 필요하다.  이러한 관점에서 학습자와 교수가 함께 참여할 수 있는 LMS시스템의 개발이 요구된다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4406,7 +4430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4472,8 +4496,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4491,8 +4524,19 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4585,16 +4629,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4609,9 +4686,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4634,20 +4708,11 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4658,13 +4723,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4676,12 +4741,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
+    <cellStyle name="셀 확인" xfId="2" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4994,1157 +5087,1278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCBF34A-70FD-40D6-8CBA-0018B84C6384}">
-  <dimension ref="A2:L60"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.58203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="7.08203125" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="8.08203125" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="6.25" customWidth="1"/>
+    <col min="10" max="10" width="6.08203125" customWidth="1"/>
+    <col min="11" max="11" width="7.4140625" customWidth="1"/>
+    <col min="12" max="12" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12">
+        <v>44046</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="21"/>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
     <row r="3" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
-        <v>14</v>
-      </c>
+      <c r="A3" s="22"/>
       <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5">
-        <v>44044</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="25"/>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="30"/>
+      <c r="B6" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+    </row>
+    <row r="7" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="30"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="30"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+    </row>
+    <row r="12" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="14" spans="1:12" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="7" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J16" s="8" t="s">
+    <row r="16" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J17" s="8" t="s">
+    <row r="17" spans="1:12" ht="28" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J18" s="8" t="s">
+    <row r="18" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J19" s="8" t="s">
+    <row r="19" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J20" s="8" t="s">
+    <row r="20" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J21" s="8" t="s">
+    <row r="21" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J22" s="8" t="s">
+    <row r="22" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J23" s="8" t="s">
+    <row r="23" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="K23" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J24" s="8" t="s">
+    <row r="24" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J25" s="8" t="s">
+    <row r="25" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J26" s="8" t="s">
+    <row r="26" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J27" s="8" t="s">
+    <row r="27" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="K27" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J28" s="8" t="s">
+    <row r="28" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J29" s="8" t="s">
+    <row r="29" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J31" s="8" t="s">
+      <c r="C31" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J32" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="7" t="s">
+      <c r="K33" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J34" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J35" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="3">
-        <v>44044</v>
-      </c>
-      <c r="J36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="6" t="s">
         <v>160</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
+    <row r="37" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="I39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.45">
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
+  <mergeCells count="60">
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="B6:L8"/>
+    <mergeCell ref="B9:L11"/>
     <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
     <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6152,8 +6366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1738E3E6-D06A-4C7F-ADEF-15FD9D7B0C35}">
   <dimension ref="B2:T41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="G7:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6165,155 +6379,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="10"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11">
         <v>44044</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
@@ -6326,689 +6540,689 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10" t="s">
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10" t="s">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="P20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="Q20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="R20" s="10" t="s">
+      <c r="R20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="S20" s="10" t="s">
+      <c r="S20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="T20" s="10"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>1</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="G38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/요구사항/요구사항 명세서.xlsx
+++ b/요구사항/요구사항 명세서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bitProject\요구사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4940F036-F2AE-4548-A11D-50F074072B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A1FBB4-B761-4CFD-84B1-6400BE28E637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{7FEA9A74-F3CE-48C2-840C-E30D7730FF6E}"/>
   </bookViews>
@@ -4536,7 +4536,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -4590,15 +4590,6 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -4664,19 +4655,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4699,13 +4687,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -4714,61 +4699,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5090,7 +5057,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="C48" sqref="C48:H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5109,1192 +5076,1236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="12">
+      <c r="C1" s="10">
         <v>44046</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="21"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="22"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="30"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:12" ht="27.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="1" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="3" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="3" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="28" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="3" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="3" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="3" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="3" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="3" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="3" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="3" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="3" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="3" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="3" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="3" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="3" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="3" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="3" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="3" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="3" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="3" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="3" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>140</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="3" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="J35" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="3" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="3" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="3" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="3" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="3" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="3" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="3" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="3" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.45">
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C36:H36"/>
     <mergeCell ref="B5:L5"/>
     <mergeCell ref="A5:A8"/>
     <mergeCell ref="A9:A11"/>
@@ -6311,50 +6322,6 @@
     <mergeCell ref="C40:H40"/>
     <mergeCell ref="C41:H41"/>
     <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6379,155 +6346,155 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="11">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
         <v>44044</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
@@ -6540,689 +6507,689 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9" t="s">
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="T20" s="9"/>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>1</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="9" t="s">
+      <c r="K25" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.45">
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
